--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_9_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_9_sawtooth_0.1_.xlsx
@@ -577,47 +577,47 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08551761937157409</v>
+        <v>0.09056462818037136</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2540768087278741</v>
+        <v>0.2126375042666278</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>3.810664879672949</v>
+        <v>3.892599562066422</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[-0.91304101215988, 8.534370771505777]</t>
+          <t>[-0.9825385831595881, 8.767737707292431]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.1132101473520222</v>
+        <v>0.116920322616666</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1132101473520222</v>
+        <v>0.116920322616666</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.9182633181663862</v>
+        <v>-1.01889491467777</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-3.993816486545583, 2.157289850212811]</t>
+          <t>[-3.610158524845928, 1.572368695490387]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.5565948746493374</v>
+        <v>0.4389357108471779</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5565948746493374</v>
+        <v>0.4389357108471779</v>
       </c>
       <c r="S2" t="n">
-        <v>14.0736105710386</v>
+        <v>14.82349409064097</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[11.648547909265325, 16.498673232811868]</t>
+          <t>[12.326124570009817, 17.32086361127213]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>3.798338338338432</v>
+        <v>4.214594594594693</v>
       </c>
       <c r="X2" t="n">
-        <v>-8.923493493493705</v>
+        <v>-6.504004004004162</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.52017017017057</v>
+        <v>14.93319319319355</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,55 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>22.86000000000013</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001287449339861801</v>
+        <v>0.007304566710637284</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02791639013298314</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0326442004189017</v>
-      </c>
+        <v>0.05751643789443971</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.651230542927174</v>
+        <v>4.429394970564768</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[1.7563008326318101, 9.546160253222538]</t>
+          <t>[0.9705874601093161, 7.888202481020221]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.004637622041003375</v>
+        <v>0.0122969344897601</v>
       </c>
       <c r="N3" t="n">
-        <v>0.009275244082006751</v>
+        <v>0.02459386897952021</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4088158608275005</v>
+        <v>1.83023716155081</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.32705268866200043, 1.1446844103170015]</t>
+          <t>[0.823921196436963, 2.8365531266646578]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.2748653107725567</v>
+        <v>0.0004122375303228232</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5497306215451134</v>
+        <v>0.0008244750606456464</v>
       </c>
       <c r="S3" t="n">
-        <v>13.31016900957026</v>
+        <v>12.90817195994105</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.18256507230528, 15.437772946835231]</t>
+          <t>[10.953129788742793, 14.863214131139301]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>20.56856856856857</v>
+        <v>16.20108108108118</v>
       </c>
       <c r="X3" t="n">
-        <v>17.99199199199199</v>
+        <v>12.5398198198199</v>
       </c>
       <c r="Y3" t="n">
-        <v>23.14514514514514</v>
+        <v>19.86234234234246</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_9_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_9_sawtooth_0.1_.xlsx
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -577,47 +577,47 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09056462818037136</v>
+        <v>0.0008534337975540929</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2126375042666278</v>
+        <v>0.005453160242543377</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>3.892599562066422</v>
+        <v>6.397729143017949</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[-0.9825385831595881, 8.767737707292431]</t>
+          <t>[1.9435770666261973, 10.8518812194097]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.116920322616666</v>
+        <v>0.005106570337539917</v>
       </c>
       <c r="N2" t="n">
-        <v>0.116920322616666</v>
+        <v>0.005106570337539917</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.01889491467777</v>
+        <v>-1.069210712933463</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-3.610158524845928, 1.572368695490387]</t>
+          <t>[-1.7862108380770803, -0.3522105877898465]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.4389357108471779</v>
+        <v>0.00367370350521723</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4389357108471779</v>
+        <v>0.00367370350521723</v>
       </c>
       <c r="S2" t="n">
-        <v>14.82349409064097</v>
+        <v>13.02269678468274</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[12.326124570009817, 17.32086361127213]</t>
+          <t>[10.661842593757406, 15.383550975608074]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.214594594594693</v>
+        <v>4.422722722722831</v>
       </c>
       <c r="X2" t="n">
-        <v>-6.504004004004162</v>
+        <v>1.456896896896932</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.93319319319355</v>
+        <v>7.38854854854873</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.86000000000013</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007304566710637284</v>
+        <v>0.000991927170298168</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05751643789443971</v>
+        <v>0.005453160242543377</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>4.429394970564768</v>
+        <v>5.38216120453898</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[0.9705874601093161, 7.888202481020221]</t>
+          <t>[1.703308973166708, 9.061013435911253]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0122969344897601</v>
+        <v>0.004312425651640694</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02459386897952021</v>
+        <v>0.005106570337539917</v>
       </c>
       <c r="O3" t="n">
-        <v>1.83023716155081</v>
+        <v>1.905710858934349</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.823921196436963, 2.8365531266646578]</t>
+          <t>[1.1509738850989617, 2.6604478327697354]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.0004122375303228232</v>
+        <v>1.258059791009458e-06</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0008244750606456464</v>
+        <v>2.516119582018916e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>12.90817195994105</v>
+        <v>12.77522542930447</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[10.953129788742793, 14.863214131139301]</t>
+          <t>[10.79256604093582, 14.75788481767312]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>16.20108108108118</v>
+        <v>15.87075075075084</v>
       </c>
       <c r="X3" t="n">
-        <v>12.5398198198199</v>
+        <v>13.13441441441448</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.86234234234246</v>
+        <v>18.60708708708719</v>
       </c>
     </row>
   </sheetData>
